--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE5CDD-5EB0-CD4A-A8F1-43BA7BA909DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D2E2F-640B-7249-BE78-52F0221FD7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29780" yWindow="580" windowWidth="35900" windowHeight="19900" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -437,9 +437,6 @@
     <t>lab-09</t>
   </si>
   <si>
-    <t>learning reflection (clone from GitHub) &lt;br&gt; project proposal &lt;br&gt; lab-08 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>project report for peer review</t>
+  </si>
+  <si>
+    <t>learning reflection (clone from GitHub) &lt;br&gt; project proposal &lt;br&gt; lab-07 &lt;br&gt; ae</t>
   </si>
 </sst>
 </file>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,7 +964,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>130</v>
@@ -1405,7 +1405,7 @@
         <v>86</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>130</v>
@@ -1416,7 +1416,7 @@
         <v>87</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>130</v>
@@ -1449,7 +1449,7 @@
         <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>130</v>
@@ -1498,7 +1498,7 @@
         <v>94</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D2E2F-640B-7249-BE78-52F0221FD7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DEB509-2CC3-5E46-B1E4-516272994956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29780" yWindow="580" windowWidth="35900" windowHeight="19900" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="146">
   <si>
     <t>WEEK</t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">project proposal work </t>
   </si>
   <si>
-    <t>[sign up for project group](https://docs.google.com/spreadsheets/d/1T8ynu2KodlkYa7eTG1EsnggARHN7tVt2iQFKIVgDodo/edit?usp=sharing)</t>
-  </si>
-  <si>
     <t>ae-11</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>[language of models](https://mrne222-sp26.github.io/slides/18-language-of-models/18-language-of-models.html#1)</t>
   </si>
   <si>
-    <t>review [lab-08 solutions](https://github.com/MRNE222-sp26-activities/lab-08/blob/main/lab-08-solutions.md) &lt;br&gt; [model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
-  </si>
-  <si>
     <t>ae-02</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
     <t>Th Apr 23</t>
   </si>
   <si>
-    <t>final learning reflection</t>
-  </si>
-  <si>
     <t>lab-05 &lt;br&gt; ae-10 &lt;br&gt; ae-11</t>
   </si>
   <si>
@@ -449,9 +440,6 @@
     <t>*Spring break - no class*</t>
   </si>
   <si>
-    <t>lab-01 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
-  </si>
-  <si>
     <t>lab-04 &lt;br&gt; ae-08 &lt;br&gt; ae-09</t>
   </si>
   <si>
@@ -464,7 +452,28 @@
     <t>project report for peer review</t>
   </si>
   <si>
-    <t>learning reflection (clone from GitHub) &lt;br&gt; project proposal &lt;br&gt; lab-07 &lt;br&gt; ae</t>
+    <t>ae-01b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab-01 </t>
+  </si>
+  <si>
+    <t>ae-02 &lt;br&gt; ae-03</t>
+  </si>
+  <si>
+    <t>[intro2r Ch 1 and 2](https://intro2r.com/)</t>
+  </si>
+  <si>
+    <t>sign up for project group</t>
+  </si>
+  <si>
+    <t>project proposal &lt;br&gt; lab-07 &lt;br&gt; ae</t>
+  </si>
+  <si>
+    <t>[model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
+  </si>
+  <si>
+    <t>if the college is closed today, please complete lab-01  on your own before our next class meeting by carefully following the [lab-01 instructions](https://mrne222-sp26.github.io/slides/lab-01/lab-01-hello-r.html)</t>
   </si>
 </sst>
 </file>
@@ -849,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -890,18 +899,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -909,10 +918,16 @@
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -920,51 +935,57 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -972,21 +993,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -994,24 +1015,24 @@
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1019,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1027,7 +1048,7 @@
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1041,10 +1062,10 @@
     </row>
     <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -1052,10 +1073,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1063,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
@@ -1071,35 +1092,35 @@
     </row>
     <row r="19" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1107,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>21</v>
@@ -1115,10 +1136,10 @@
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -1126,71 +1147,71 @@
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1198,15 +1219,15 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>28</v>
@@ -1214,24 +1235,24 @@
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1239,26 +1260,26 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1266,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>23</v>
@@ -1274,32 +1295,32 @@
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1307,40 +1328,40 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1348,34 +1369,34 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1383,40 +1404,40 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1424,40 +1445,40 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1465,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -1473,32 +1494,32 @@
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1506,18 +1527,13 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="F62" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DEB509-2CC3-5E46-B1E4-516272994956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643FE2D4-6ED4-3E4C-B58E-BB021BEDC294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29780" yWindow="580" windowWidth="35900" windowHeight="19900" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="147">
   <si>
     <t>WEEK</t>
   </si>
@@ -473,7 +473,10 @@
     <t>[model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
   </si>
   <si>
-    <t>if the college is closed today, please complete lab-01  on your own before our next class meeting by carefully following the [lab-01 instructions](https://mrne222-sp26.github.io/slides/lab-01/lab-01-hello-r.html)</t>
+    <t>[create a GitHub account](https://mrne222-sp26.github.io/slides/02-toolkit/02-toolkit.html#/create-a-github-account) &lt;br&gt; add your GitHub username to [this spreadsheet](https://docs.google.com/spreadsheets/d/1x7OZpo7XwYQN32XAUyRtY0xAbsJ-NGv4Vb9kXWKoIiQ/edit?gid=0#gid=0)</t>
+  </si>
+  <si>
+    <t>if the college is closed, complete lab-01  on your own before Tues by carefully following the [lab-01 instructions](https://mrne222-sp26.github.io/slides/lab-01/lab-01-hello-r.html)</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
@@ -928,6 +931,9 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -938,7 +944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -949,7 +955,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643FE2D4-6ED4-3E4C-B58E-BB021BEDC294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB13671-72BC-DF43-AF3C-EAAA3C0A0486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29780" yWindow="580" windowWidth="35900" windowHeight="19900" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="29320" yWindow="500" windowWidth="37220" windowHeight="20860" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
   <si>
     <t>WEEK</t>
   </si>
@@ -329,9 +329,6 @@
     <t>RESOURCES</t>
   </si>
   <si>
-    <t>lab-02</t>
-  </si>
-  <si>
     <t>[welcome](https://mrne222-sp26.github.io/slides/01-welcome/01-welcome.html#/title-slide)</t>
   </si>
   <si>
@@ -386,15 +383,9 @@
     <t>ae-02</t>
   </si>
   <si>
-    <t>ae-03</t>
-  </si>
-  <si>
     <t>ae-05</t>
   </si>
   <si>
-    <t>lab-02 &lt;br&gt; ae-04 &lt;br&gt; ae-05</t>
-  </si>
-  <si>
     <t>lab-03 &lt;br&gt; ae-05 &lt;br&gt; ae-06 &lt;br&gt; ae-07</t>
   </si>
   <si>
@@ -458,9 +449,6 @@
     <t xml:space="preserve">lab-01 </t>
   </si>
   <si>
-    <t>ae-02 &lt;br&gt; ae-03</t>
-  </si>
-  <si>
     <t>[intro2r Ch 1 and 2](https://intro2r.com/)</t>
   </si>
   <si>
@@ -476,7 +464,16 @@
     <t>[create a GitHub account](https://mrne222-sp26.github.io/slides/02-toolkit/02-toolkit.html#/create-a-github-account) &lt;br&gt; add your GitHub username to [this spreadsheet](https://docs.google.com/spreadsheets/d/1x7OZpo7XwYQN32XAUyRtY0xAbsJ-NGv4Vb9kXWKoIiQ/edit?gid=0#gid=0)</t>
   </si>
   <si>
-    <t>if the college is closed, complete lab-01  on your own before Tues by carefully following the [lab-01 instructions](https://mrne222-sp26.github.io/slides/lab-01/lab-01-hello-r.html)</t>
+    <t>ae-03 &lt;br&gt; lab-02</t>
+  </si>
+  <si>
+    <t>lab-02 &lt;br&gt; ae-03 &lt;br&gt;  ae-04 &lt;br&gt; ae-05</t>
+  </si>
+  <si>
+    <t>*NO CLASS - SNOW DAY*</t>
+  </si>
+  <si>
+    <t>if the college is closed, complete lab-01  on your own by carefully following the [lab-01 instructions](https://mrne222-sp26.github.io/slides/lab-01/lab-01-hello-r.html)</t>
   </si>
 </sst>
 </file>
@@ -864,7 +861,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,7 +902,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -913,7 +910,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -924,16 +921,16 @@
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -941,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -952,38 +949,35 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -991,18 +985,21 @@
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1013,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1027,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1038,7 +1035,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1071,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -1082,7 +1079,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1104,10 +1101,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1118,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1126,7 +1123,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1145,7 +1142,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -1156,7 +1153,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -1167,7 +1164,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1181,13 +1178,13 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1195,10 +1192,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1206,10 +1203,10 @@
         <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1217,7 +1214,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1228,7 +1225,7 @@
         <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1247,10 +1244,10 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1258,7 +1255,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1269,7 +1266,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1277,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1285,7 +1282,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1304,7 +1301,7 @@
         <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1315,10 +1312,10 @@
         <v>30</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1326,7 +1323,7 @@
         <v>74</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1337,7 +1334,7 @@
         <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1345,10 +1342,10 @@
         <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1359,7 +1356,7 @@
         <v>31</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1367,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1386,7 +1383,7 @@
         <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1413,7 +1410,7 @@
         <v>83</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1421,10 +1418,10 @@
         <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1432,10 +1429,10 @@
         <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1443,7 +1440,7 @@
         <v>86</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1457,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1465,21 +1462,21 @@
         <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1506,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1517,7 +1514,7 @@
         <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1525,7 +1522,7 @@
         <v>93</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB13671-72BC-DF43-AF3C-EAAA3C0A0486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01AE999-A7A3-2F43-924B-B9FB622DA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29320" yWindow="500" windowWidth="37220" windowHeight="20860" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>WEEK</t>
   </si>
@@ -77,15 +77,9 @@
     <t>ae-04</t>
   </si>
   <si>
-    <t>[R4DS Ch 3](https://r4ds.hadley.nz/data-transform) &lt;br&gt; [R4DS Ch 5](https://r4ds.hadley.nz/data-tidy)</t>
-  </si>
-  <si>
     <t>lab-04</t>
   </si>
   <si>
-    <t xml:space="preserve">[R4DS Ch 19](https://r4ds.hadley.nz/joins) </t>
-  </si>
-  <si>
     <t>[R4DS Ch 16](https://r4ds.hadley.nz/factors) &lt;br&gt; [R4DS Ch 17](https://r4ds.hadley.nz/datetimes)</t>
   </si>
   <si>
@@ -474,6 +468,18 @@
   </si>
   <si>
     <t>if the college is closed, complete lab-01  on your own by carefully following the [lab-01 instructions](https://mrne222-sp26.github.io/slides/lab-01/lab-01-hello-r.html)</t>
+  </si>
+  <si>
+    <t>[ggplot2 eBook](https://ggplot2-book.org/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R4DS Ch 3](https://r4ds.hadley.nz/data-transform) </t>
+  </si>
+  <si>
+    <t>[R4DS Ch 5](https://r4ds.hadley.nz/data-tidy)</t>
+  </si>
+  <si>
+    <t>[R4DS Ch 19](https://r4ds.hadley.nz/joins)</t>
   </si>
 </sst>
 </file>
@@ -860,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -899,18 +905,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -918,19 +924,19 @@
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -938,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -946,46 +952,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -993,24 +999,27 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1018,24 +1027,24 @@
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1043,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1051,35 +1060,38 @@
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1087,43 +1099,40 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1131,40 +1140,43 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1172,49 +1184,49 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1222,40 +1234,40 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1263,26 +1275,26 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1290,40 +1302,40 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1331,40 +1343,40 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1372,7 +1384,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
@@ -1380,26 +1392,26 @@
     </row>
     <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1407,40 +1419,40 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1448,40 +1460,40 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1489,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -1497,32 +1509,32 @@
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1530,13 +1542,13 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01AE999-A7A3-2F43-924B-B9FB622DA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C740688-8696-F84B-AE4B-BF895C237CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="30120" yWindow="500" windowWidth="33700" windowHeight="19420" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,9 +344,6 @@
     <t>[data tidying](https://mrne222-sp26.github.io/slides/06-data-tidying/06-data-tidying#/title-slide)</t>
   </si>
   <si>
-    <t>[data types](https://mrne222-sp26.github.io/slides/08-data-types/08-data-types.html#1) &lt;br&gt;  [data classes](https://mrne222-sp26.github.io/slides/09-data-classes/09-data-classes.html#1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">[data import](https://mrne222-sp26.github.io/slides/10-data-import/10-data-import.html#1) </t>
   </si>
   <si>
@@ -380,9 +377,6 @@
     <t>ae-05</t>
   </si>
   <si>
-    <t>lab-03 &lt;br&gt; ae-05 &lt;br&gt; ae-06 &lt;br&gt; ae-07</t>
-  </si>
-  <si>
     <t>ae-08</t>
   </si>
   <si>
@@ -480,6 +474,12 @@
   </si>
   <si>
     <t>[R4DS Ch 19](https://r4ds.hadley.nz/joins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[data types and classes](https://mrne222-sp26.github.io/slides/08-data-types-classes/08-data-types-classes.html#1) </t>
+  </si>
+  <si>
+    <t>lab-03 &lt;br&gt; ae-06 &lt;br&gt; ae-07</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -927,16 +927,16 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -944,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -980,10 +980,10 @@
         <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1002,13 +1002,13 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>100</v>
@@ -1030,13 +1030,13 @@
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1044,7 +1044,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -1072,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -1091,7 +1091,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1110,10 +1110,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -1165,7 +1165,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>27</v>
@@ -1176,7 +1176,7 @@
         <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1190,13 +1190,13 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1204,10 +1204,10 @@
         <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1215,10 +1215,10 @@
         <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1256,10 +1256,10 @@
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1267,7 +1267,7 @@
         <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>70</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
         <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1335,7 +1335,7 @@
         <v>72</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1354,10 +1354,10 @@
         <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1368,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
         <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>78</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>81</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1430,10 +1430,10 @@
         <v>82</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
         <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1452,7 +1452,7 @@
         <v>84</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1474,21 +1474,21 @@
         <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>33</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>91</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C740688-8696-F84B-AE4B-BF895C237CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F2E77-A51B-5945-B1E3-9E08EDF5265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="500" windowWidth="33700" windowHeight="19420" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
   <si>
     <t>WEEK</t>
   </si>
@@ -116,9 +116,6 @@
     <t>ae-10</t>
   </si>
   <si>
-    <t xml:space="preserve">project proposal work </t>
-  </si>
-  <si>
     <t>ae-11</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>[models with multiple predictors](https://enst222.github.io/slides/21-model-multiple-predictors/21-model-multiple-predictors#1)</t>
   </si>
   <si>
-    <t xml:space="preserve">lab-08 &lt;br&gt; ae-16 </t>
-  </si>
-  <si>
     <t xml:space="preserve">spatial data: make a map </t>
   </si>
   <si>
@@ -443,9 +437,6 @@
     <t>sign up for project group</t>
   </si>
   <si>
-    <t>project proposal &lt;br&gt; lab-07 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>[model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
   </si>
   <si>
@@ -480,6 +471,15 @@
   </si>
   <si>
     <t>lab-03 &lt;br&gt; ae-06 &lt;br&gt; ae-07</t>
+  </si>
+  <si>
+    <t>thinking with data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project proposal &lt;br&gt; lab-07 </t>
+  </si>
+  <si>
+    <t>lab-08 &lt;br&gt; ae</t>
   </si>
 </sst>
 </file>
@@ -522,13 +522,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -905,18 +911,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -924,19 +930,19 @@
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -944,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -952,46 +958,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -999,27 +1005,27 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1027,24 +1033,24 @@
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1052,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1060,10 +1066,10 @@
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -1074,13 +1080,13 @@
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -1088,10 +1094,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1099,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1107,54 +1113,57 @@
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -1162,21 +1171,21 @@
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1184,49 +1193,49 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1234,40 +1243,46 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1275,26 +1290,26 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1302,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>21</v>
@@ -1310,32 +1325,26 @@
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1343,40 +1352,40 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1384,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
@@ -1392,26 +1401,32 @@
     </row>
     <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1419,40 +1434,40 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1460,40 +1475,40 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1501,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -1509,32 +1524,32 @@
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1542,13 +1557,13 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp26/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F2E77-A51B-5945-B1E3-9E08EDF5265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA10C90F-5DEE-C942-A4B7-88E74367ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="147">
   <si>
     <t>WEEK</t>
   </si>
@@ -95,9 +95,6 @@
     <t>[data joins](https://enst222.github.io/slides/08-multi-df/08-multi-df.html#1)</t>
   </si>
   <si>
-    <t>lab-05</t>
-  </si>
-  <si>
     <t>lab-06</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>ae-08</t>
   </si>
   <si>
-    <t>ae-09</t>
-  </si>
-  <si>
     <t>project proposal work</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>Th Apr 23</t>
   </si>
   <si>
-    <t>lab-05 &lt;br&gt; ae-10 &lt;br&gt; ae-11</t>
-  </si>
-  <si>
     <t>ae</t>
   </si>
   <si>
@@ -413,9 +404,6 @@
     <t>*Spring break - no class*</t>
   </si>
   <si>
-    <t>lab-04 &lt;br&gt; ae-08 &lt;br&gt; ae-09</t>
-  </si>
-  <si>
     <t>lab-06 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -480,6 +468,15 @@
   </si>
   <si>
     <t>lab-08 &lt;br&gt; ae</t>
+  </si>
+  <si>
+    <t>ae-09 &lt;br&gt; lab-05</t>
+  </si>
+  <si>
+    <t>lab-04 &lt;br&gt; ae-08</t>
+  </si>
+  <si>
+    <t>lab-05 &lt;br&gt; ae-09 &lt;br&gt; ae-10 &lt;br&gt; ae-11</t>
   </si>
 </sst>
 </file>
@@ -872,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -911,18 +908,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -930,19 +927,19 @@
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -950,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -958,46 +955,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1005,27 +1002,27 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1033,24 +1030,24 @@
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1058,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1066,10 +1063,10 @@
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -1080,13 +1077,13 @@
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -1094,10 +1091,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1105,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1113,32 +1110,29 @@
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1146,46 +1140,46 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1193,49 +1187,49 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1243,46 +1237,46 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1290,26 +1284,26 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1317,34 +1311,34 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1352,40 +1346,40 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1393,7 +1387,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
@@ -1401,32 +1395,32 @@
     </row>
     <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1434,40 +1428,40 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1475,40 +1469,40 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1516,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -1524,32 +1518,32 @@
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1557,13 +1551,13 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
